--- a/Data/Modeling Stage/Feature Selection/Nova_IMS_feature_selection_Date_threshold_25_no_test.xlsx
+++ b/Data/Modeling Stage/Feature Selection/Nova_IMS_feature_selection_Date_threshold_25_no_test.xlsx
@@ -58,6 +58,9 @@
     <t>Clicks on course</t>
   </si>
   <si>
+    <t>Days with no interaction (%)</t>
+  </si>
+  <si>
     <t>Days with no interaction</t>
   </si>
   <si>
@@ -70,12 +73,6 @@
     <t>Start of Session 2 (%)</t>
   </si>
   <si>
-    <t>Start of Session 3 (%)</t>
-  </si>
-  <si>
-    <t>Days with no interaction (%)</t>
-  </si>
-  <si>
     <t>Resources viewed</t>
   </si>
   <si>
@@ -85,22 +82,25 @@
     <t>Clicks per day</t>
   </si>
   <si>
+    <t>Start of Session 5 (%)</t>
+  </si>
+  <si>
+    <t>Start of Session 3 (%)</t>
+  </si>
+  <si>
     <t>Number of sessions</t>
   </si>
   <si>
-    <t>Start of Session 6 (%)</t>
+    <t>Clicks per session</t>
   </si>
   <si>
     <t>Assignments viewed</t>
   </si>
   <si>
-    <t>Clicks per session</t>
+    <t>Clicks (% of course total)</t>
   </si>
   <si>
     <t>Clicks on folder</t>
-  </si>
-  <si>
-    <t>Clicks (% of course total)</t>
   </si>
   <si>
     <t>Links viewed</t>
@@ -115,7 +115,7 @@
     <t>Start of Session 9 (%)</t>
   </si>
   <si>
-    <t>Start of Session 5 (%)</t>
+    <t>Start of Session 6 (%)</t>
   </si>
   <si>
     <t>Average grade of assignments</t>
@@ -683,7 +683,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -701,7 +701,7 @@
         <v>1</v>
       </c>
       <c r="J6">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -805,13 +805,13 @@
         <v>18</v>
       </c>
       <c r="B10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="b">
         <v>1</v>
       </c>
       <c r="D10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
@@ -837,7 +837,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="b">
         <v>1</v>
@@ -861,7 +861,7 @@
         <v>1</v>
       </c>
       <c r="J11">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -869,13 +869,13 @@
         <v>20</v>
       </c>
       <c r="B12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="b">
         <v>1</v>
       </c>
       <c r="D12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
@@ -884,13 +884,13 @@
         <v>1</v>
       </c>
       <c r="G12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
       </c>
       <c r="I12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>6</v>
@@ -907,22 +907,22 @@
         <v>1</v>
       </c>
       <c r="D13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="b">
         <v>1</v>
       </c>
       <c r="G13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
       <c r="I13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13">
         <v>6</v>
@@ -939,13 +939,13 @@
         <v>1</v>
       </c>
       <c r="D14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="b">
         <v>1</v>
       </c>
       <c r="F14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="b">
         <v>1</v>
@@ -965,19 +965,19 @@
         <v>23</v>
       </c>
       <c r="B15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="b">
         <v>1</v>
       </c>
       <c r="D15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="b">
         <v>1</v>
@@ -997,28 +997,28 @@
         <v>24</v>
       </c>
       <c r="B16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="b">
         <v>1</v>
       </c>
       <c r="D16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
       </c>
       <c r="I16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>5</v>
@@ -1029,28 +1029,28 @@
         <v>25</v>
       </c>
       <c r="B17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="b">
         <v>1</v>
       </c>
       <c r="D17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
       <c r="I17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17">
         <v>5</v>
@@ -1070,19 +1070,19 @@
         <v>0</v>
       </c>
       <c r="E18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
       </c>
       <c r="I18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>5</v>
@@ -1102,19 +1102,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" t="b">
         <v>1</v>
       </c>
       <c r="I19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19">
         <v>5</v>
@@ -1679,7 +1679,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -1711,7 +1711,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -1807,7 +1807,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" t="b">
         <v>0</v>
@@ -1839,7 +1839,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B7" t="b">
         <v>0</v>
@@ -1935,7 +1935,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
@@ -1967,7 +1967,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -1999,7 +1999,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="b">
         <v>0</v>
@@ -2031,7 +2031,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
@@ -2063,7 +2063,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
@@ -2095,7 +2095,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
@@ -2127,7 +2127,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B16" t="b">
         <v>0</v>
@@ -2159,31 +2159,31 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="b">
         <v>1</v>
       </c>
       <c r="D17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
       <c r="I17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>5</v>
@@ -2191,7 +2191,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B18" t="b">
         <v>1</v>
@@ -2287,7 +2287,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B21" t="b">
         <v>1</v>
@@ -2383,10 +2383,10 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" t="b">
         <v>1</v>
@@ -2410,36 +2410,36 @@
         <v>1</v>
       </c>
       <c r="J24">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
       </c>
       <c r="C25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" t="b">
         <v>1</v>
       </c>
       <c r="I25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25">
         <v>4</v>
@@ -2447,7 +2447,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
@@ -2479,16 +2479,16 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
       </c>
       <c r="C27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
@@ -2511,16 +2511,16 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
       </c>
       <c r="C28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
@@ -2543,7 +2543,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -2575,7 +2575,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -2812,7 +2812,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -2844,7 +2844,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -2876,7 +2876,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -2908,7 +2908,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -2917,7 +2917,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -2935,21 +2935,21 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="b">
         <v>1</v>
       </c>
       <c r="D6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -2972,7 +2972,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -2981,13 +2981,13 @@
         <v>1</v>
       </c>
       <c r="D7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
       </c>
       <c r="F7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
@@ -3004,10 +3004,10 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="b">
         <v>1</v>
@@ -3019,7 +3019,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
@@ -3036,16 +3036,16 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="b">
         <v>1</v>
       </c>
       <c r="D9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
@@ -3068,16 +3068,16 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="b">
         <v>1</v>
       </c>
       <c r="D10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
@@ -3164,16 +3164,16 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="b">
         <v>1</v>
       </c>
       <c r="D13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
@@ -3228,7 +3228,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
@@ -3240,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="b">
         <v>1</v>
@@ -3255,12 +3255,12 @@
         <v>1</v>
       </c>
       <c r="J15">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
@@ -3292,16 +3292,16 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="b">
         <v>1</v>
       </c>
       <c r="D17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="b">
         <v>1</v>
@@ -3310,13 +3310,13 @@
         <v>1</v>
       </c>
       <c r="G17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
       <c r="I17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17">
         <v>6</v>
@@ -3333,13 +3333,13 @@
         <v>1</v>
       </c>
       <c r="D18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="b">
         <v>1</v>
       </c>
       <c r="F18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="b">
         <v>1</v>
@@ -3356,10 +3356,10 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="b">
         <v>1</v>
@@ -3371,16 +3371,16 @@
         <v>1</v>
       </c>
       <c r="F19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="b">
         <v>1</v>
       </c>
       <c r="I19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>6</v>
@@ -3388,7 +3388,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B20" t="b">
         <v>1</v>
@@ -3420,16 +3420,16 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="b">
         <v>1</v>
       </c>
       <c r="D21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
@@ -3452,7 +3452,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B22" t="b">
         <v>1</v>
@@ -3516,7 +3516,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
@@ -3548,10 +3548,10 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" t="b">
         <v>1</v>
@@ -3563,16 +3563,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="b">
         <v>1</v>
       </c>
       <c r="I25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>4</v>
@@ -3580,10 +3580,10 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="B26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" t="b">
         <v>1</v>
@@ -3595,16 +3595,16 @@
         <v>0</v>
       </c>
       <c r="F26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" t="b">
         <v>1</v>
       </c>
       <c r="I26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26">
         <v>4</v>
@@ -3612,16 +3612,16 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
       </c>
       <c r="C27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
@@ -3644,13 +3644,13 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
       </c>
       <c r="C28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28" t="b">
         <v>0</v>
@@ -3671,12 +3671,12 @@
         <v>1</v>
       </c>
       <c r="J28">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -3688,7 +3688,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29" t="b">
         <v>1</v>
@@ -3703,12 +3703,12 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -3740,7 +3740,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -3772,13 +3772,13 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
       </c>
       <c r="C32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32" t="b">
         <v>0</v>
@@ -3799,18 +3799,18 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
       </c>
       <c r="C33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33" t="b">
         <v>0</v>
@@ -3831,18 +3831,18 @@
         <v>0</v>
       </c>
       <c r="J33">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
       </c>
       <c r="C34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34" t="b">
         <v>0</v>
@@ -3863,18 +3863,18 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B35" t="b">
         <v>0</v>
       </c>
       <c r="C35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35" t="b">
         <v>0</v>
@@ -3895,7 +3895,7 @@
         <v>0</v>
       </c>
       <c r="J35">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3945,7 +3945,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -3977,7 +3977,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -4009,7 +4009,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -4041,7 +4041,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -4073,10 +4073,10 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="b">
         <v>1</v>
@@ -4100,12 +4100,12 @@
         <v>1</v>
       </c>
       <c r="J6">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -4114,7 +4114,7 @@
         <v>1</v>
       </c>
       <c r="D7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -4132,12 +4132,12 @@
         <v>1</v>
       </c>
       <c r="J7">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -4233,16 +4233,16 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="b">
         <v>1</v>
       </c>
       <c r="D11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
@@ -4297,22 +4297,22 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="b">
         <v>1</v>
       </c>
       <c r="D13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
       </c>
       <c r="F13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
@@ -4324,12 +4324,12 @@
         <v>1</v>
       </c>
       <c r="J13">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
@@ -4370,13 +4370,13 @@
         <v>1</v>
       </c>
       <c r="D15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="b">
         <v>1</v>
       </c>
       <c r="F15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="b">
         <v>1</v>
@@ -4393,7 +4393,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
@@ -4425,10 +4425,10 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="b">
         <v>1</v>
@@ -4437,19 +4437,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="b">
         <v>1</v>
       </c>
       <c r="G17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
       <c r="I17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17">
         <v>5</v>
@@ -4457,7 +4457,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B18" t="b">
         <v>1</v>
@@ -4469,19 +4469,19 @@
         <v>0</v>
       </c>
       <c r="E18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
       </c>
       <c r="I18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18">
         <v>5</v>
@@ -4489,10 +4489,10 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="B19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="b">
         <v>1</v>
@@ -4501,19 +4501,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" t="b">
         <v>1</v>
       </c>
       <c r="G19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="b">
         <v>1</v>
       </c>
       <c r="I19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>5</v>
@@ -4521,7 +4521,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B20" t="b">
         <v>0</v>
@@ -4553,7 +4553,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B21" t="b">
         <v>1</v>
@@ -4585,7 +4585,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B22" t="b">
         <v>1</v>
@@ -4597,19 +4597,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
       </c>
       <c r="I22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>5</v>
@@ -4617,39 +4617,39 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" t="b">
         <v>1</v>
       </c>
       <c r="I23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
@@ -4681,7 +4681,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
@@ -4693,19 +4693,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="b">
         <v>1</v>
       </c>
       <c r="I25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>4</v>
@@ -4713,7 +4713,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
@@ -4745,7 +4745,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
@@ -4754,7 +4754,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
@@ -4772,12 +4772,12 @@
         <v>1</v>
       </c>
       <c r="J27">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
@@ -4809,7 +4809,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -4824,7 +4824,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
@@ -4836,21 +4836,21 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
       </c>
       <c r="C30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
@@ -4873,7 +4873,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -4882,13 +4882,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>
       </c>
       <c r="F31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
@@ -4905,13 +4905,13 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
       </c>
       <c r="C32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32" t="b">
         <v>0</v>
@@ -4932,12 +4932,12 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -4969,7 +4969,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
@@ -5001,7 +5001,7 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B35" t="b">
         <v>0</v>
